--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/006_功能开启与引导.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/006_功能开启与引导.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1260C8-5818-4387-A7AD-EC1F8BFC9549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E7F3CD-5E35-4B3D-AE60-ED3EA0AF36A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25680" yWindow="0" windowWidth="13500" windowHeight="20835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="13500" windowHeight="16545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionLock" sheetId="2" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/006_功能开启与引导.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/006_功能开启与引导.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E7F3CD-5E35-4B3D-AE60-ED3EA0AF36A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F4773A-2436-4724-94B0-CE5D299C3CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="13500" windowHeight="16545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionLock" sheetId="2" r:id="rId1"/>
@@ -178,10 +178,35 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>SJC</author>
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>SJC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+红色的id不要动</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -207,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -231,11 +256,12 @@
 1、AVG播放结束
 2、AVG打开其他UI
 3.指定关卡怒满触发
-4、</t>
+4.装备专用
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -262,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -291,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -316,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -343,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -370,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -397,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -423,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -448,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -473,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -498,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="Q1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -525,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="T1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -560,7 +586,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="231">
   <si>
     <t>ID</t>
   </si>
@@ -697,6 +723,15 @@
     <t>通讯系统解锁-inspector界面</t>
   </si>
   <si>
+    <t>Home_team_Lock</t>
+  </si>
+  <si>
+    <t>完成第一章解锁！</t>
+  </si>
+  <si>
+    <t>Home_team_Unlock</t>
+  </si>
+  <si>
     <t>Mail_Lock</t>
   </si>
   <si>
@@ -832,22 +867,328 @@
     <t>scene_logic_new/UIRoot/ui_battle/root/content_root/center_bottom/red_hero_panel/skillmgr/skill_item02/card1</t>
   </si>
   <si>
+    <t>点击释放终极技</t>
+  </si>
+  <si>
+    <t>0,133</t>
+  </si>
+  <si>
     <t>序章第一场战斗时播放AVG后，战斗暂停，同时提示玩家点击异质物id=102的头像释放大招</t>
   </si>
   <si>
+    <t>逻辑整合引导1</t>
+  </si>
+  <si>
+    <t>ui_inspector/root/safe_area/window/leftbottom/left_down/btn_1</t>
+  </si>
+  <si>
+    <t>C0_begin|逻辑引导文本</t>
+  </si>
+  <si>
+    <t>点击逻辑按钮</t>
+  </si>
+  <si>
+    <t>第一次逻辑整合前的AVG播放结束后添加引导，同时屏蔽其他所有点击</t>
+  </si>
+  <si>
+    <t>ui_solo_court_logic/root/safe_area/window/center/clues/clue_items/clueItem_0/btn</t>
+  </si>
+  <si>
+    <t>选择一条逻辑</t>
+  </si>
+  <si>
+    <t>0,128</t>
+  </si>
+  <si>
+    <t>引导点击第一个逻辑</t>
+  </si>
+  <si>
+    <t>ui_solo_court_logic/root/safe_area/window/center/clues/clue_items/clueItem_1/btn</t>
+  </si>
+  <si>
+    <t>C0_begin|逻辑2引导文本</t>
+  </si>
+  <si>
+    <t>再选择一条逻辑</t>
+  </si>
+  <si>
+    <t>引导点击第二个逻辑</t>
+  </si>
+  <si>
+    <t>ui_solo_court_logic/root/safe_area/window/bottom/reasoning/btn</t>
+  </si>
+  <si>
+    <t>进行整合</t>
+  </si>
+  <si>
+    <t>场景调查功能引导1</t>
+  </si>
+  <si>
+    <t>ui_inspector/root/safe_area/window/leftbottom/left_down/btn_3</t>
+  </si>
+  <si>
+    <t>引导打开鹰眼</t>
+  </si>
+  <si>
+    <t>C0_chouka|抽卡前</t>
+  </si>
+  <si>
+    <t>ui_mainhome/root/safe_area/window/TopRight/ButtonGacha</t>
+  </si>
+  <si>
+    <t>进行下潜，探测异质物</t>
+  </si>
+  <si>
+    <t>首次进入主界面播放完avg后，要引导玩家点击抽卡按钮</t>
+  </si>
+  <si>
+    <t>ui_extractcard/root/safe_area/window/ExtractcardView/Viewport/Panel_CardView/1/RightDown/Draw/Go_ExtractTen/Button_ExtractTen</t>
+  </si>
+  <si>
+    <t>打开抽卡界面，并强制引导玩家点击召唤一次按钮</t>
+  </si>
+  <si>
+    <t>C0_chouka|抽卡后</t>
+  </si>
+  <si>
+    <t>ui_mainhome/root/safe_area/window/TopRight/ButtonMap</t>
+  </si>
+  <si>
+    <t>返回主界面并播完AVG后，地图按钮高亮闪烁，但不强制玩家点击，玩家可在当前界面随便逛逛</t>
+  </si>
+  <si>
+    <t>ui_areas/root/safe_area/window/center/map_root/Trans_AreasRoot/1</t>
+  </si>
+  <si>
+    <t>引导玩家点击大地图上的昭离公馆</t>
+  </si>
+  <si>
+    <t>Intro_C1_battle01_layout|开始</t>
+  </si>
+  <si>
+    <t>ui_battle_layout/root/safe_area/window/select_cards_panel/card_list/cards/Viewport/Content/3</t>
+  </si>
+  <si>
+    <t>ui_battle_layout_3D(Clone)/bottom/chars/10/drag_aera</t>
+  </si>
+  <si>
+    <t>获得涂凌与新卡牌后，引导卡牌上阵</t>
+  </si>
+  <si>
+    <t>ui_battle_layout/root/safe_area/window/red_slots/slot_1_3</t>
+  </si>
+  <si>
+    <t>引导涂凌上阵</t>
+  </si>
+  <si>
+    <t>ui_battle_layout/root/safe_area/window/heros/HeroRoulette/Role_list/role_item_root/role_item_1 (1)</t>
+  </si>
+  <si>
+    <t>选择涂凌</t>
+  </si>
+  <si>
+    <t>Intro_C1_ScpLevelUp|</t>
+  </si>
+  <si>
+    <t>ui_unit_package/root/safe_area/window/center/itemList_sr/Viewport/itemListContent_tr/unitItem_go_0</t>
+  </si>
+  <si>
+    <t>选择一个异质物</t>
+  </si>
+  <si>
+    <t>0,-128</t>
+  </si>
+  <si>
+    <t>引导点击升级按钮</t>
+  </si>
+  <si>
+    <t>ui_unit_info/root/safe_area/window/right/rightRoot_tr/levelRoot_btn</t>
+  </si>
+  <si>
+    <t>点击打开升级界面</t>
+  </si>
+  <si>
+    <t>集中讨论引导1</t>
+  </si>
+  <si>
+    <t>ui_avg_dialog/style3/type_1/bg_lab_dialog/bg/next_sentence</t>
+  </si>
+  <si>
+    <t>点击箭头可查看下一句话</t>
+  </si>
+  <si>
+    <t>0,132</t>
+  </si>
+  <si>
+    <t>ui_court_clue/root/safe_area/window/left/ClueList/ClueItem_2</t>
+  </si>
+  <si>
+    <t>看！矛盾出现了！选择线索反驳聂飞。</t>
+  </si>
+  <si>
+    <t>404,0</t>
+  </si>
+  <si>
+    <t>home_c1end|</t>
+  </si>
+  <si>
+    <t>ui_inspector/root/safe_area/window/rightbottom/right_down/btnphone/ui_urgentQuestBtn</t>
+  </si>
+  <si>
+    <t>引导点击讯息按钮</t>
+  </si>
+  <si>
+    <t>maze101_part2|</t>
+  </si>
+  <si>
+    <t>ui_maze/root/safe_area/window/ButtonGroup_Doors/Button_RightDoor</t>
+  </si>
+  <si>
+    <t>点击进入房间</t>
+  </si>
+  <si>
+    <t>引导进入迷宫第一个房间</t>
+  </si>
+  <si>
+    <t>maze101_mon41|</t>
+  </si>
+  <si>
+    <t>ui_mazestage/root/safe_area/window/stageInfoSelectedItem/stageInfobg/bottom/fightBtn</t>
+  </si>
+  <si>
+    <t>开始战斗</t>
+  </si>
+  <si>
+    <t>装备引导</t>
+  </si>
+  <si>
+    <t>Intro_Equip|装备引导1</t>
+  </si>
+  <si>
+    <t>ui_unit_research/root/safe_area/window/top/close_btn</t>
+  </si>
+  <si>
+    <t>在开发界面点返回</t>
+  </si>
+  <si>
+    <t>ui_unit_info/root/safe_area/window/right/rightRoot_tr/equip/equipPanel_btn</t>
+  </si>
+  <si>
+    <t>Intro_Equip|装备引导2</t>
+  </si>
+  <si>
+    <t>avg后点装备入口</t>
+  </si>
+  <si>
+    <t>ui_equip_info/root/safe_area/window/center/Scroll View/Viewport/Content/0/ButtonCheck</t>
+  </si>
+  <si>
+    <t>avg后点装备</t>
+  </si>
+  <si>
+    <t>ui_equip_tips/root/safe_area/window/panel_root/euqip_tips/funcBtn</t>
+  </si>
+  <si>
+    <t>Intro_Equip|装备引导3</t>
+  </si>
+  <si>
+    <t>点装备按键</t>
+  </si>
+  <si>
+    <t>ui_equip_info/root/safe_area/window/center/unit_info/onekeyUp</t>
+  </si>
+  <si>
+    <t>Intro_Equip|装备引导4</t>
+  </si>
+  <si>
+    <t>avg后点一键装备</t>
+  </si>
+  <si>
+    <t>maze101_research|</t>
+  </si>
+  <si>
+    <t>ui_mazestage/root/safe_area/window/Button_Menu</t>
+  </si>
+  <si>
+    <t>点击打开快速跳转界面</t>
+  </si>
+  <si>
+    <t>引导打开关卡的快速跳转界面</t>
+  </si>
+  <si>
+    <t>ui_fastJump/root/safe_area/window/Panel_Menu/ButtonRoot/Button_Unit</t>
+  </si>
+  <si>
+    <t>进入异质物系统</t>
+  </si>
+  <si>
+    <t>300,0</t>
+  </si>
+  <si>
+    <t>ui_unit_info/root/safe_area/window/right/rightRoot_tr/research_btn</t>
+  </si>
+  <si>
+    <t>点击进入异质物开发功能</t>
+  </si>
+  <si>
+    <t>0,75</t>
+  </si>
+  <si>
+    <t>开发引导</t>
+  </si>
+  <si>
+    <t>ui_unit_research/root/safe_area/window/right/levelUpBtn</t>
+  </si>
+  <si>
+    <t>点击按钮对其进行开发</t>
+  </si>
+  <si>
+    <t>点击开发按钮</t>
+  </si>
+  <si>
+    <t>ui_unit_research/root/safe_area/window/left/CoreNode</t>
+  </si>
+  <si>
+    <t>maze101_research|引导结束</t>
+  </si>
+  <si>
+    <t>当前阶段全部开发完成后\n可激活这里的效果</t>
+  </si>
+  <si>
+    <t>0,-160</t>
+  </si>
+  <si>
+    <t>引导查看技能</t>
+  </si>
+  <si>
+    <t>maze101_part3|</t>
+  </si>
+  <si>
+    <t>ui_maze/root/safe_area/window/ButtonGroup_Doors/Button_ForwardDoor</t>
+  </si>
+  <si>
+    <t>点击进入201房间</t>
+  </si>
+  <si>
     <t>Intro_C0_battle01_2|引导涂凌技能</t>
   </si>
   <si>
-    <t>scene_logic_new/UIRoot/ui_battle/root/content_root/center_bottom/red_hero_panel/skillmgr/skill_item02/head_Mask</t>
+    <t>scene_logic_new/UIRoot/ui_battle/root/content_root/center_bottom/red_hero_panel/skillmgr/skill_item02/info_root/skill_root/skill_sel_point</t>
+  </si>
+  <si>
+    <t>scene_logic_new/logicBase/SkillPositions/000/GuideObj</t>
+  </si>
+  <si>
+    <t>拖动释放少女主动技</t>
+  </si>
+  <si>
+    <t>0,135</t>
   </si>
   <si>
     <t>引导释放涂凌技能</t>
   </si>
   <si>
-    <t>Intro_C0_battle02|开始</t>
-  </si>
-  <si>
-    <t>scene_logic_new/UIRoot/ui_battle/root/content_root/center_bottom/red_hero_panel/skillmgr/skill_item03/card1</t>
+    <t>Intro_C0_battle02|引导偶童</t>
   </si>
   <si>
     <t>引导织线偶童技能</t>
@@ -856,291 +1197,107 @@
     <t>Intro_C0_battle02_2|开始</t>
   </si>
   <si>
-    <t>scene_logic_new/UIRoot/ui_battle/root/content_root/center_bottom/red_hero_panel/skillmgr/skill_item03/head_Mask</t>
+    <t>scene_logic_new/logicBase/SkillPositions/010/GuideObj</t>
   </si>
   <si>
     <t>引导释放凯瑟琳技能</t>
   </si>
   <si>
-    <t>C0_chouka|抽卡前</t>
-  </si>
-  <si>
-    <t>ui_mainhome/root/safe_area/window/TopRight/ButtonGacha</t>
-  </si>
-  <si>
-    <t>首次进入主界面播放完avg后，要引导玩家点击抽卡按钮</t>
-  </si>
-  <si>
-    <t>ui_extractcard/root/safe_area/window/ExtractcardView/Viewport/Panel_CardView/1/RightDown/Draw/Go_ExtractOne/Button_ExtractOne</t>
-  </si>
-  <si>
-    <t>打开抽卡界面，并强制引导玩家点击召唤一次按钮</t>
-  </si>
-  <si>
-    <t>C0_chouka|抽卡后</t>
-  </si>
-  <si>
-    <t>ui_mainhome/root/safe_area/window/TopRight/ButtonMap</t>
-  </si>
-  <si>
-    <t>返回主界面并播完AVG后，地图按钮高亮闪烁，但不强制玩家点击，玩家可在当前界面随便逛逛</t>
-  </si>
-  <si>
-    <t>集中讨论引导1</t>
-  </si>
-  <si>
-    <t>ui_avg_dialog/style3/type_1/bg_lab_dialog/bg/next_sentence</t>
-  </si>
-  <si>
-    <t>点击箭头可查看下一句话</t>
-  </si>
-  <si>
-    <t>0,132</t>
-  </si>
-  <si>
-    <t>ui_court_clue/root/safe_area/window/left/ClueList/ClueItem_2</t>
-  </si>
-  <si>
-    <t>看！矛盾出现了！选择线索反驳聂飞。</t>
-  </si>
-  <si>
-    <t>404,0</t>
-  </si>
-  <si>
-    <t>场景调查功能引导1</t>
-  </si>
-  <si>
-    <t>ui_inspector/root/safe_area/window/leftbottom/left_down/btn_3</t>
-  </si>
-  <si>
-    <t>引导打开鹰眼</t>
-  </si>
-  <si>
-    <t>装备引导</t>
-  </si>
-  <si>
-    <t>Intro_Equip|装备引导1</t>
-  </si>
-  <si>
-    <t>ui_unit_research/root/safe_area/window/top/close_btn</t>
-  </si>
-  <si>
-    <t>0,133</t>
-  </si>
-  <si>
-    <t>在开发界面点返回</t>
-  </si>
-  <si>
-    <t>ui_unit_info/root/safe_area/window/right/rightRoot_tr/equip/equipPanel_btn</t>
-  </si>
-  <si>
-    <t>Intro_Equip|装备引导2</t>
-  </si>
-  <si>
-    <t>avg后点装备入口</t>
-  </si>
-  <si>
-    <t>ui_equip_info/root/safe_area/window/center/Scroll View/Viewport/Content/0/ButtonCheck</t>
-  </si>
-  <si>
-    <t>avg后点装备</t>
-  </si>
-  <si>
-    <t>ui_equip_tips/root/safe_area/window/panel_root/euqip_tips/funcBtn</t>
-  </si>
-  <si>
-    <t>Intro_Equip|装备引导3</t>
-  </si>
-  <si>
-    <t>点装备按键</t>
-  </si>
-  <si>
-    <t>ui_equip_info/root/safe_area/window/center/unit_info/onekeyUp</t>
-  </si>
-  <si>
-    <t>Intro_Equip|装备引导4</t>
-  </si>
-  <si>
-    <t>avg后点一键装备</t>
-  </si>
-  <si>
-    <t>逻辑整合引导1</t>
-  </si>
-  <si>
-    <t>ui_inspector/root/safe_area/window/leftbottom/left_down/btn_1</t>
-  </si>
-  <si>
-    <t>C0_begin|逻辑引导文本</t>
-  </si>
-  <si>
-    <t>点击逻辑按钮</t>
-  </si>
-  <si>
-    <t>第一次逻辑整合前的AVG播放结束后添加引导，同时屏蔽其他所有点击</t>
-  </si>
-  <si>
-    <t>ui_solo_court_logic/root/safe_area/window/center/clues/clue_items/clueItem_0/btn</t>
-  </si>
-  <si>
-    <t>选择一条逻辑</t>
-  </si>
-  <si>
-    <t>0,128</t>
-  </si>
-  <si>
-    <t>引导点击第一个逻辑</t>
-  </si>
-  <si>
-    <t>ui_solo_court_logic/root/safe_area/window/center/clues/clue_items/clueItem_1/btn</t>
-  </si>
-  <si>
-    <t>C0_begin|逻辑2引导文本</t>
-  </si>
-  <si>
-    <t>再选择一条逻辑</t>
-  </si>
-  <si>
-    <t>引导点击第二个逻辑</t>
-  </si>
-  <si>
-    <t>ui_solo_court_logic/root/safe_area/window/bottom/reasoning/btn</t>
-  </si>
-  <si>
-    <t>进行整合</t>
-  </si>
-  <si>
-    <t>Intro_C1_battle01_layout|开始</t>
-  </si>
-  <si>
-    <t>ui_battle_layout/root/safe_area/window/select_cards_panel/card_list/cards/Viewport/Content/1</t>
-  </si>
-  <si>
-    <t>ui_battle_layout_3D(Clone)/bottom/chars_bg/20</t>
-  </si>
-  <si>
-    <t>获得涂凌与新卡牌后，引导卡牌上阵</t>
-  </si>
-  <si>
-    <t>ui_battle_layout/root/safe_area/window/red_slots/slot_2_3</t>
-  </si>
-  <si>
-    <t>引导涂凌上阵</t>
-  </si>
-  <si>
-    <t>ui_battle_layout/root/safe_area/window/heros/HeroRoulette/Role_list/role_item_root/role_item_1 (1)</t>
-  </si>
-  <si>
-    <t>选择涂凌</t>
+    <t>巡逻引导1</t>
+  </si>
+  <si>
+    <t>Intro_partol|巡逻引导1</t>
+  </si>
+  <si>
+    <t>ui_popup_patrol/root/safe_area/window/center/bg_image/content/taskInfo/btn_1</t>
+  </si>
+  <si>
+    <t>Intro_partol|巡逻引导2</t>
+  </si>
+  <si>
+    <t>ui_popup_patrol/root/safe_area/window/center/bg_image/btn_close</t>
+  </si>
+  <si>
+    <t>巡逻引导2</t>
+  </si>
+  <si>
+    <t>Intro_partol|巡逻引导3</t>
+  </si>
+  <si>
+    <t>ui_popup_patrol/root/safe_area/window/center/bg_image/content/refreshBtn</t>
+  </si>
+  <si>
+    <t>Intro_partol|巡逻引导4</t>
+  </si>
+  <si>
+    <t>root/safe_area/window/center/bg_image/content/item_list/Viewport/Content/1</t>
+  </si>
+  <si>
+    <t>引导选择鹰眼线索</t>
+  </si>
+  <si>
+    <t>root/safe_area/window/center/bg_image/content/itemInfopanel/name_panel/observeBtn</t>
+  </si>
+  <si>
+    <t>引导查看详情</t>
+  </si>
+  <si>
+    <t>root/safe_area/window/bottom/ButtonGuideClose</t>
+  </si>
+  <si>
+    <t>C0_kaiselinoffice|开启鹰眼</t>
+  </si>
+  <si>
+    <t>引导关闭查看详情</t>
+  </si>
+  <si>
+    <t>LogicalObjects_UI_C0/UI_Note/root/safe_area/Plan/日记本正确</t>
+  </si>
+  <si>
+    <t>C0_kaiselinoffice|凯瑟琳的日记</t>
+  </si>
+  <si>
+    <t>引导点击日记本</t>
+  </si>
+  <si>
+    <t>root/safe_area/window/leftbottom/left_down/btn_2</t>
+  </si>
+  <si>
+    <t>C0_kaiselinoffice|介绍背包</t>
+  </si>
+  <si>
+    <t>引导打开线索背包</t>
+  </si>
+  <si>
+    <t>root/safe_area/window/center/bg_image/btn_close</t>
+  </si>
+  <si>
+    <t>引导关闭</t>
   </si>
   <si>
     <t>ui_battle_layout/root/safe_area/window/fight</t>
   </si>
   <si>
     <t>进入战斗</t>
-  </si>
-  <si>
-    <t>Intro_C1_ScpLevelUp|</t>
-  </si>
-  <si>
-    <t>ui_unit_info/root/safe_area/window/right/rightRoot_tr/levelRoot_btn</t>
-  </si>
-  <si>
-    <t>引导点击升级按钮</t>
-  </si>
-  <si>
-    <t>cailiao_part0|</t>
-  </si>
-  <si>
-    <t>ui_mainhome/root/safe_area/window/BottomRight/ButtonPhone/ui_urgentQuestBtn</t>
-  </si>
-  <si>
-    <t>引导点击讯息按钮</t>
-  </si>
-  <si>
-    <t>cailiao_part3|</t>
-  </si>
-  <si>
-    <t>ui_unit_info/root/safe_area/window/right/rightRoot_tr/research_btn</t>
-  </si>
-  <si>
-    <t>开发引导</t>
-  </si>
-  <si>
-    <t>ui_unit_research/root/safe_area/window/right/levelUpBtn</t>
-  </si>
-  <si>
-    <t>点击开发按钮</t>
-  </si>
-  <si>
-    <t>ui_unit_research/root/safe_area/window/left/CoreNode</t>
-  </si>
-  <si>
-    <t>引导查看技能</t>
-  </si>
-  <si>
-    <t>Intro_C1_battle05|开始</t>
-  </si>
-  <si>
-    <t>UIRoot/ui_battle/animation/content_root/center_bottom/red_hero_panel/skillmgr/skill_item02/head_Mask</t>
-  </si>
-  <si>
-    <t>scene_logic_new/logicBase/SkillPositions/000</t>
-  </si>
-  <si>
-    <t>root/safe_area/window/center/bg_image/content/item_list/Viewport/Content/1</t>
-  </si>
-  <si>
-    <t>引导选择鹰眼线索</t>
-  </si>
-  <si>
-    <t>root/safe_area/window/center/bg_image/content/itemInfopanel/name_panel/observeBtn</t>
-  </si>
-  <si>
-    <t>引导查看详情</t>
-  </si>
-  <si>
-    <t>root/safe_area/window/bottom/ButtonGuideClose</t>
-  </si>
-  <si>
-    <t>C0_kaiselinoffice|开启鹰眼</t>
-  </si>
-  <si>
-    <t>引导关闭查看详情</t>
-  </si>
-  <si>
-    <t>LogicalObjects_UI_C0/UI_Note/root/safe_area/Plan/日记本正确</t>
-  </si>
-  <si>
-    <t>C0_kaiselinoffice|凯瑟琳的日记</t>
-  </si>
-  <si>
-    <t>引导点击日记本</t>
-  </si>
-  <si>
-    <t>root/safe_area/window/leftbottom/left_down/btn_2</t>
-  </si>
-  <si>
-    <t>C0_kaiselinoffice|介绍背包</t>
-  </si>
-  <si>
-    <t>引导打开线索背包</t>
-  </si>
-  <si>
-    <t>root/safe_area/window/center/bg_image/btn_close</t>
-  </si>
-  <si>
-    <t>引导关闭</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1195,7 +1352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1226,6 +1383,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39918210394604325"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1253,30 +1416,37 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1556,15 +1726,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="23.875" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="6" width="19.875" customWidth="1"/>
@@ -1576,125 +1746,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1925,15 +2095,53 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>301</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
@@ -1942,81 +2150,113 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>46</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>301</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>302</v>
       </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
         <v>30</v>
       </c>
-      <c r="F13">
+      <c r="F18">
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>3</v>
       </c>
-      <c r="I13">
+      <c r="I18">
         <v>3</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K18" t="s">
         <v>31</v>
       </c>
-      <c r="M13">
+      <c r="M18">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>303</v>
       </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
         <v>36</v>
       </c>
-      <c r="F14">
+      <c r="F19">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>3</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="M14">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="M19">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -2025,11 +2265,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2039,7 +2279,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="9.25" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="80.875" customWidth="1"/>
     <col min="11" max="11" width="18.375" customWidth="1"/>
@@ -2054,210 +2294,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>68</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="V1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="R2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>101</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>88</v>
+      <c r="B4" t="s">
+        <v>91</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <f>INT(A4/100)</f>
+        <f t="shared" ref="D4:D18" si="0">INT(A4/100)</f>
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <f>RIGHT(A4,1)*1</f>
+        <f t="shared" ref="E4:E8" si="1">RIGHT(A4,1)*1</f>
         <v>1</v>
       </c>
       <c r="F4">
@@ -2273,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -2281,25 +2521,33 @@
       <c r="Q4">
         <v>1</v>
       </c>
-      <c r="R4" s="7"/>
+      <c r="R4" s="9"/>
+      <c r="S4" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="V4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1401</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E5" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F5">
@@ -2312,37 +2560,38 @@
         <v>0.5</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="R5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S5" t="s">
+        <v>99</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="V5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1301</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2354,37 +2603,35 @@
         <v>0.5</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="S6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="V6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1501</v>
-      </c>
-      <c r="B7" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2396,39 +2643,38 @@
         <v>0.5</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" t="s">
+        <v>106</v>
+      </c>
+      <c r="S7" t="s">
+        <v>107</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="V7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>301</v>
-      </c>
-      <c r="B8" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <f>INT(A8/100)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E8" s="5">
-        <f>RIGHT(A8,1)*1</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2440,32 +2686,35 @@
         <v>0.5</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="T8" s="10"/>
       <c r="V8" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>302</v>
+        <v>301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <f>INT(A9/100)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E9" s="5">
-        <f>RIGHT(A9,1)*1</f>
-        <v>2</v>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2480,227 +2729,254 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P9">
+        <v>112</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="V9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>401</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" ref="E10:E18" si="2">RIGHT(A10,1)*1</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T10" s="11"/>
+      <c r="V10" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>402</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" s="1">
         <v>260</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="V9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>401</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <f>INT(A10/100)</f>
-        <v>4</v>
-      </c>
-      <c r="E10" s="5">
-        <f>RIGHT(A10,1)*1</f>
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="11"/>
+      <c r="V11" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>501</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0.5</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="V10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1001</v>
-      </c>
-      <c r="B11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0.5</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="S11" t="s">
-        <v>110</v>
-      </c>
-      <c r="T11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1002</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0.5</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="S12" t="s">
-        <v>113</v>
-      </c>
-      <c r="T12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1101</v>
-      </c>
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0.5</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>116</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="V13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="11"/>
+      <c r="V12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>502</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="11"/>
+      <c r="V13" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1201</v>
+        <v>601</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="R14" t="s">
-        <v>119</v>
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="V14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1202</v>
+        <v>602</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F15">
@@ -2716,26 +2992,26 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
-      </c>
-      <c r="T15" t="s">
-        <v>121</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="T15" s="10"/>
       <c r="V15" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1203</v>
+        <v>603</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>12</v>
-      </c>
-      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F16">
@@ -2751,27 +3027,33 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
-      </c>
-      <c r="R16" t="s">
-        <v>124</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="T16" s="10"/>
       <c r="V16" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1204</v>
+        <v>701</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2786,24 +3068,32 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>126</v>
+        <v>134</v>
+      </c>
+      <c r="S17" t="s">
+        <v>135</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="V17" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1205</v>
+        <v>702</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2818,27 +3108,37 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>128</v>
-      </c>
-      <c r="R18" t="s">
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>139</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="V18" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1206</v>
+        <v>801</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <f t="shared" ref="D19:D36" si="3">INT(A19/100)</f>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2852,36 +3152,29 @@
       <c r="I19">
         <v>2</v>
       </c>
-      <c r="J19" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19" t="s">
-        <v>132</v>
-      </c>
-      <c r="V19" t="s">
-        <v>133</v>
+      <c r="J19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="S19" t="s">
+        <v>142</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>201</v>
-      </c>
-      <c r="B20" t="s">
-        <v>134</v>
+        <v>802</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D23" si="0">INT(A20/100)</f>
-        <v>2</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" ref="E20:E23" si="1">RIGHT(A20,1)*1</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2896,35 +3189,35 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>135</v>
-      </c>
-      <c r="R20" t="s">
-        <v>136</v>
+        <v>144</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
       </c>
       <c r="S20" t="s">
-        <v>137</v>
-      </c>
-      <c r="T20" t="s">
-        <v>121</v>
-      </c>
-      <c r="V20" t="s">
-        <v>138</v>
+        <v>145</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>202</v>
+        <v>901</v>
+      </c>
+      <c r="B21" t="s">
+        <v>147</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" ref="E21:E23" si="4">RIGHT(A21,1)*1</f>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2939,32 +3232,36 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>139</v>
-      </c>
-      <c r="S21" t="s">
-        <v>140</v>
-      </c>
-      <c r="T21" t="s">
-        <v>141</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="T21" s="10"/>
       <c r="V21" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>203</v>
+        <v>1001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2979,305 +3276,310 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>143</v>
-      </c>
-      <c r="R22" t="s">
-        <v>144</v>
+        <v>151</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
       </c>
       <c r="S22" t="s">
-        <v>145</v>
-      </c>
-      <c r="T22" t="s">
-        <v>141</v>
+        <v>152</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="V22" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>204</v>
+        <v>1101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>155</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s">
+        <v>156</v>
+      </c>
+      <c r="T23" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="V23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1201</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="1">
         <v>4</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0.5</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="V23" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>501</v>
-      </c>
-      <c r="B24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ref="D24:D26" si="2">INT(A24/100)</f>
+      <c r="D24" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T24" s="11"/>
+    </row>
+    <row r="25" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>1202</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T25" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>1203</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="T26" s="11"/>
+      <c r="V26" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>1204</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="T27" s="11"/>
+      <c r="V27" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>1205</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="E28" s="1">
         <v>5</v>
       </c>
-      <c r="E24" s="5">
-        <f t="shared" ref="E24:E26" si="3">RIGHT(A24,1)*1</f>
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>0.5</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24" t="s">
-        <v>150</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>151</v>
-      </c>
-      <c r="V24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>502</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T28" s="11"/>
+      <c r="V28" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>1206</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0.5</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25" t="s">
-        <v>153</v>
-      </c>
-      <c r="V25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>503</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0.5</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>504</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ref="D27:D32" si="4">INT(A27/100)</f>
-        <v>5</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" ref="E27:E32" si="5">RIGHT(A27,1)*1</f>
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>0.5</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="V27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>601</v>
-      </c>
-      <c r="B28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="E29" s="1">
         <v>6</v>
       </c>
-      <c r="E28" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>0.5</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="V28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>801</v>
-      </c>
-      <c r="B29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>0.5</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29" t="s">
-        <v>163</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="V29" t="s">
-        <v>164</v>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="T29" s="11"/>
+      <c r="V29" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>901</v>
+        <v>1301</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E30:E36" si="5">RIGHT(A30,1)*1</f>
         <v>1</v>
       </c>
       <c r="F30">
@@ -3293,22 +3595,31 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>166</v>
+        <v>173</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="S30" t="s">
+        <v>174</v>
+      </c>
+      <c r="T30" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="V30" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>902</v>
+        <v>1302</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="5"/>
@@ -3327,22 +3638,31 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>168</v>
+        <v>176</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="S31" t="s">
+        <v>177</v>
+      </c>
+      <c r="T31" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="V31" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>903</v>
+        <v>1303</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="5"/>
@@ -3361,76 +3681,419 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
+        <v>134</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="S32" t="s">
+        <v>135</v>
+      </c>
+      <c r="T32" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="V32" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="E33" s="5"/>
+      <c r="A33">
+        <v>1304</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0.5</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>179</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="S33" t="s">
+        <v>180</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="V33" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="E34" s="5"/>
+      <c r="A34">
+        <v>1305</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0.5</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>183</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="S34" t="s">
+        <v>184</v>
+      </c>
+      <c r="T34" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="V34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1306</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0.5</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>186</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s">
+        <v>187</v>
+      </c>
+      <c r="S35" t="s">
+        <v>188</v>
+      </c>
+      <c r="T35" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="V35" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>701</v>
+        <v>1401</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <f>INT(A36/100)</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="E36" s="5">
-        <f>RIGHT(A36,1)*1</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>0.5</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>173</v>
-      </c>
-      <c r="L36" t="s">
-        <v>174</v>
+        <v>192</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>1</v>
       </c>
+      <c r="S36" t="s">
+        <v>193</v>
+      </c>
+      <c r="T36" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="V36" t="s">
-        <v>93</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>1501</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>0.5</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>195</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37" s="9"/>
+      <c r="S37" t="s">
+        <v>197</v>
+      </c>
+      <c r="T37" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="V37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>1601</v>
+      </c>
+      <c r="B38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0.5</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>92</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38" s="9"/>
+      <c r="V38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>1701</v>
+      </c>
+      <c r="B39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>17</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>0.5</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>195</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39" s="9"/>
+      <c r="V39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1801</v>
+      </c>
+      <c r="B40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>18</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0.5</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1802</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>18</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0.5</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>207</v>
+      </c>
+      <c r="R41" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1102</v>
+        <v>1803</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>11</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="E42" s="5">
+        <v>3</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3445,24 +4108,27 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>175</v>
-      </c>
-      <c r="V42" t="s">
-        <v>176</v>
+        <v>209</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1103</v>
+        <v>1901</v>
+      </c>
+      <c r="B43" t="s">
+        <v>210</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3474,27 +4140,24 @@
         <v>0.5</v>
       </c>
       <c r="I43">
-        <v>2</v>
-      </c>
-      <c r="J43" t="s">
-        <v>177</v>
-      </c>
-      <c r="V43" t="s">
-        <v>178</v>
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1104</v>
+        <v>1902</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>11</v>
-      </c>
-      <c r="E44">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3509,94 +4172,27 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>179</v>
+        <v>212</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
       </c>
       <c r="R44" t="s">
-        <v>180</v>
-      </c>
-      <c r="V44" t="s">
-        <v>181</v>
-      </c>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T45" s="10"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1101</v>
-      </c>
-      <c r="B46" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>11</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>0.5</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>182</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="R46" t="s">
-        <v>183</v>
-      </c>
-      <c r="V46" t="s">
-        <v>184</v>
-      </c>
+      <c r="T46" s="10"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>1102</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>11</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>0.5</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
-      <c r="J47" t="s">
-        <v>185</v>
-      </c>
-      <c r="R47" t="s">
-        <v>186</v>
-      </c>
-      <c r="V47" t="s">
-        <v>187</v>
-      </c>
+      <c r="T47" s="10"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3605,33 +4201,254 @@
         <v>11</v>
       </c>
       <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0.5</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>214</v>
+      </c>
+      <c r="T48" s="10"/>
+      <c r="V48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1103</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>11</v>
+      </c>
+      <c r="E49">
         <v>3</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>0.5</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
-      <c r="J48" t="s">
-        <v>188</v>
-      </c>
-      <c r="R48" t="s">
-        <v>180</v>
-      </c>
-      <c r="V48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0.5</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>216</v>
+      </c>
+      <c r="T49" s="10"/>
+      <c r="V49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1104</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>11</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0.5</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>218</v>
+      </c>
+      <c r="R50" t="s">
+        <v>219</v>
+      </c>
+      <c r="T50" s="10"/>
+      <c r="V50" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T51" s="10"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>11</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0.5</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>221</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="R52" t="s">
+        <v>222</v>
+      </c>
+      <c r="T52" s="10"/>
+      <c r="V52" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1102</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>11</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0.5</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" t="s">
+        <v>224</v>
+      </c>
+      <c r="R53" t="s">
+        <v>225</v>
+      </c>
+      <c r="T53" s="10"/>
+      <c r="V53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1103</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0.5</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54" t="s">
+        <v>227</v>
+      </c>
+      <c r="R54" t="s">
+        <v>219</v>
+      </c>
+      <c r="T54" s="10"/>
+      <c r="V54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>604</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <f>INT(A58/100)</f>
+        <v>6</v>
+      </c>
+      <c r="E58" s="5">
+        <f>RIGHT(A58,1)*1</f>
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0.5</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="T58" s="10"/>
+      <c r="V58" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
